--- a/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
+++ b/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnel\Documents\Project\G2G_supplyshed\doc\LitReview\TyndallLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B15DE-2CDD-438D-9929-A2725C847220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE040AC1-1163-4ADC-A781-0A0117A7425C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" firstSheet="6" activeTab="13" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" activeTab="6" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId2"/>
-    <sheet name="nrw" sheetId="1" r:id="rId3"/>
-    <sheet name="farmpond" sheetId="12" r:id="rId4"/>
-    <sheet name="cbs" sheetId="4" r:id="rId5"/>
-    <sheet name="gww" sheetId="7" r:id="rId6"/>
-    <sheet name="bioreactor" sheetId="2" r:id="rId7"/>
-    <sheet name="dwm" sheetId="3" r:id="rId8"/>
-    <sheet name="cc" sheetId="8" r:id="rId9"/>
-    <sheet name="extrot" sheetId="11" r:id="rId10"/>
-    <sheet name="ninhib" sheetId="10" r:id="rId11"/>
-    <sheet name="mulch" sheetId="9" r:id="rId12"/>
-    <sheet name="satbuff" sheetId="5" r:id="rId13"/>
-    <sheet name="ripbuff" sheetId="6" r:id="rId14"/>
-    <sheet name="misc" sheetId="15" r:id="rId15"/>
+    <sheet name="CPcodes" sheetId="14" r:id="rId2"/>
+    <sheet name="unorganized" sheetId="16" r:id="rId3"/>
+    <sheet name="misc" sheetId="15" r:id="rId4"/>
+    <sheet name="nrw" sheetId="1" r:id="rId5"/>
+    <sheet name="farmpond" sheetId="12" r:id="rId6"/>
+    <sheet name="wetlands" sheetId="17" r:id="rId7"/>
+    <sheet name="cbs" sheetId="4" r:id="rId8"/>
+    <sheet name="gww" sheetId="7" r:id="rId9"/>
+    <sheet name="bioreactor" sheetId="2" r:id="rId10"/>
+    <sheet name="dwm" sheetId="3" r:id="rId11"/>
+    <sheet name="satbuff" sheetId="5" r:id="rId12"/>
+    <sheet name="ripbuff" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="117">
   <si>
     <t>Nutrient Removal Wetland</t>
   </si>
@@ -77,12 +75,6 @@
     <t>Grass Waterways</t>
   </si>
   <si>
-    <t>Cover Crops</t>
-  </si>
-  <si>
-    <t>Cereal Rye</t>
-  </si>
-  <si>
     <t>Living Mulch</t>
   </si>
   <si>
@@ -137,15 +129,6 @@
     <t>FiNRT code for byField_FinancialAnalysis script</t>
   </si>
   <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>cereal rye</t>
-  </si>
-  <si>
-    <t>oats</t>
-  </si>
-  <si>
     <t>Table of Contents</t>
   </si>
   <si>
@@ -191,36 +174,9 @@
     <t>drainage water management</t>
   </si>
   <si>
-    <t>Field Management</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cover crops</t>
-  </si>
-  <si>
-    <t>extrot</t>
-  </si>
-  <si>
-    <t>extended rotation</t>
-  </si>
-  <si>
-    <t>ninhib</t>
-  </si>
-  <si>
-    <t>nitrogen inhibitor</t>
-  </si>
-  <si>
-    <t>mulch</t>
-  </si>
-  <si>
     <t>satbuff</t>
   </si>
   <si>
-    <t>residue management</t>
-  </si>
-  <si>
     <t>saturated buffer</t>
   </si>
   <si>
@@ -296,39 +252,18 @@
     <t>conservation cover</t>
   </si>
   <si>
-    <t>Conservation cover is establishing and maintaining permanent vegetative cover to reduce soil erosion and nutrient export to nearby water bodies.</t>
-  </si>
-  <si>
     <t>https://wrl.mnpals.net/islandora/object/WRLrepository%3A2955/datastream/PDF/view</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Conservation cover</t>
-  </si>
-  <si>
     <t>funding source</t>
   </si>
   <si>
     <t>CRP, RIM, CREP</t>
   </si>
   <si>
-    <t>1.71% land</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2.72% land</t>
-  </si>
-  <si>
-    <t>4.32% land</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -381,6 +316,78 @@
   </si>
   <si>
     <t>1990-2006 (1997 excluded)</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>Bartlett and Harris</t>
+  </si>
+  <si>
+    <t>Tanner et al.</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Reddy et al.</t>
+  </si>
+  <si>
+    <t>Whiting and Chanton</t>
+  </si>
+  <si>
+    <t>peatland; GHG cycling</t>
+  </si>
+  <si>
+    <t>long term study constructed wetlands</t>
+  </si>
+  <si>
+    <t>McCarty and Ritchie</t>
+  </si>
+  <si>
+    <t>wetlands; C sinks</t>
+  </si>
+  <si>
+    <t>Cpcodes</t>
+  </si>
+  <si>
+    <t>NRCS conservation practice codes</t>
+  </si>
+  <si>
+    <t>unorganized</t>
+  </si>
+  <si>
+    <t>inventory of papers to follow up on</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>practices that aren't specifically in ACPF</t>
+  </si>
+  <si>
+    <t>Cover Crops - cereal rye</t>
+  </si>
+  <si>
+    <t>Cover Crops - oats</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>tons C/ha/yr</t>
+  </si>
+  <si>
+    <t>McCarty and Ritchie. 2002. Impact of soil movement on carbon sequestration in agricultural ecosystems</t>
   </si>
 </sst>
 </file>
@@ -441,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,6 +464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -772,172 +785,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01E2A14-223C-46F6-91D8-6CEAD8BC5816}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
+      <c r="A3" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
+      <c r="A4" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
+      <c r="A9" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>56</v>
+      <c r="A14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
+      <c r="A16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="nrw!A1" display="nutrient removal wetland" xr:uid="{26634C5A-0E4B-4A05-9C59-2F71E2D185B6}"/>
-    <hyperlink ref="B4" location="farmpond!A1" display="farm pond" xr:uid="{70A02367-6D55-44B0-A6CB-6DA591991218}"/>
-    <hyperlink ref="B6" location="cbs!A1" display="contour buffer strip" xr:uid="{6A930FDC-BB67-4412-9377-1F83C9F1C235}"/>
-    <hyperlink ref="B7" location="gww!A1" display="grass water way" xr:uid="{4359429D-C4E3-4FF2-93CF-27EDDF15F1EE}"/>
-    <hyperlink ref="B9" location="bioreactor!A1" display="bioreactor" xr:uid="{B85E9137-4916-4358-BF7D-B48A84AF7025}"/>
-    <hyperlink ref="B10" location="dwm!A1" display="drainage water management" xr:uid="{8ACD800E-988E-4ECE-A35A-198B97BA6263}"/>
-    <hyperlink ref="B12" location="cc!A1" display="cover crops" xr:uid="{8F245182-1B22-41F0-9934-6B8B0EA1C762}"/>
-    <hyperlink ref="B13" location="extrot!A1" display="extended rotation" xr:uid="{B5A7AA7D-587E-41D6-8671-87058830C983}"/>
-    <hyperlink ref="B14" location="ninhib!A1" display="nitrogen inhibitor" xr:uid="{07FB940E-1E13-4AF1-8E69-80413120ECBE}"/>
-    <hyperlink ref="B15" location="mulch!A1" display="residue management" xr:uid="{E373DE6B-D2F5-418B-967C-B231AF44A226}"/>
-    <hyperlink ref="B17" location="satbuff!A1" display="saturated buffer" xr:uid="{57D59944-6014-4895-AD69-427B5510D2D8}"/>
-    <hyperlink ref="B18" location="ripbuff!A1" display="riparian buffer" xr:uid="{EA7A6C22-C6E9-423F-A75D-38AA0A7E591E}"/>
+    <hyperlink ref="B6" location="nrw!A1" display="nutrient removal wetland" xr:uid="{26634C5A-0E4B-4A05-9C59-2F71E2D185B6}"/>
+    <hyperlink ref="B7" location="farmpond!A1" display="farm pond" xr:uid="{70A02367-6D55-44B0-A6CB-6DA591991218}"/>
+    <hyperlink ref="B9" location="cbs!A1" display="contour buffer strip" xr:uid="{6A930FDC-BB67-4412-9377-1F83C9F1C235}"/>
+    <hyperlink ref="B10" location="gww!A1" display="grass water way" xr:uid="{4359429D-C4E3-4FF2-93CF-27EDDF15F1EE}"/>
+    <hyperlink ref="B12" location="bioreactor!A1" display="bioreactor" xr:uid="{B85E9137-4916-4358-BF7D-B48A84AF7025}"/>
+    <hyperlink ref="B13" location="dwm!A1" display="drainage water management" xr:uid="{8ACD800E-988E-4ECE-A35A-198B97BA6263}"/>
+    <hyperlink ref="B15" location="satbuff!A1" display="saturated buffer" xr:uid="{57D59944-6014-4895-AD69-427B5510D2D8}"/>
+    <hyperlink ref="B16" location="ripbuff!A1" display="riparian buffer" xr:uid="{EA7A6C22-C6E9-423F-A75D-38AA0A7E591E}"/>
+    <hyperlink ref="B2" location="CPcodes!A1" display="NRCS conservation practice codes" xr:uid="{C433314B-1C99-4AFA-853F-45F9C1298AAB}"/>
+    <hyperlink ref="B3" location="unorganized!A1" display="inventory of papers to follow up on" xr:uid="{613A6E88-D9FF-4379-9D78-CA51BBB456A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -945,68 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB460CBB-C8E7-42A8-98BA-C0CD888ED43E}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F75519-E106-4AAF-8FAE-A33852DD5641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67171782-D446-449F-B8A8-9D0232AADE47}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,42 +947,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1063,12 +990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AA5A-7A80-42B7-876D-5E3521A27852}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F44C7B-31E2-4289-A973-C2761D3533F6}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,42 +1005,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93ABAC6-B75A-42F9-903D-7556550856D0}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1136,25 +1046,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,16 +1072,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1179,381 +1089,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7C739-06E6-4D7B-B2DD-AC136A1D2BAA}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41812F-A237-47CB-8C02-C18A90FE0CFD}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3">
-        <v>327</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1566,12 +1353,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1368,10 @@
         <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,10 +1379,10 @@
         <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,10 +1390,10 @@
         <v>393</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,10 +1401,10 @@
         <v>410</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,10 +1412,10 @@
         <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1423,10 @@
         <v>580</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1434,10 @@
         <v>582</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,10 +1445,10 @@
         <v>638</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1456,96 @@
         <v>658</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FC7F79-CEB3-432E-A3AB-3A5236BDCD48}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>1993</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>1997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>2002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1678,12 +1553,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E9E06-2429-438E-A13C-0C2CC43C98C0}">
-  <dimension ref="A1:I39"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41812F-A237-47CB-8C02-C18A90FE0CFD}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E9E06-2429-438E-A13C-0C2CC43C98C0}">
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,87 +1751,125 @@
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
+      <c r="L3">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -1871,12 +1966,15 @@
       <c r="B39" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425F467D-A866-4D20-B00C-085D5C65D737}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1900,42 +1998,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2">
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +2041,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D415F46-8A27-4B6E-B90B-AAD6F6C1F58A}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBA4E91-ED47-4C23-8892-61BD1B66445E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1961,25 +2169,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,16 +2195,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4BBCB8-BDCD-4895-9859-75A4252B7D1C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2025,25 +2233,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,220 +2259,17 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67171782-D446-449F-B8A8-9D0232AADE47}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F44C7B-31E2-4289-A973-C2761D3533F6}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FC6DBB-B546-4845-BC38-2C74BBC83B3B}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
+++ b/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnel\Documents\Project\G2G_supplyshed\doc\LitReview\TyndallLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE040AC1-1163-4ADC-A781-0A0117A7425C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF8A1B-27DD-4D51-BD70-3793AFA0C4FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" activeTab="6" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" activeTab="2" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
     <sheet name="CPcodes" sheetId="14" r:id="rId2"/>
-    <sheet name="unorganized" sheetId="16" r:id="rId3"/>
+    <sheet name="papers" sheetId="16" r:id="rId3"/>
     <sheet name="misc" sheetId="15" r:id="rId4"/>
     <sheet name="nrw" sheetId="1" r:id="rId5"/>
     <sheet name="farmpond" sheetId="12" r:id="rId6"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
   <si>
     <t>Nutrient Removal Wetland</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>McCarty and Ritchie. 2002. Impact of soil movement on carbon sequestration in agricultural ecosystems</t>
+  </si>
+  <si>
+    <t>BARC, Maryland</t>
+  </si>
+  <si>
+    <t>Christensen et al.</t>
+  </si>
+  <si>
+    <t>riparian buffers; IBI</t>
+  </si>
+  <si>
+    <t>conservation cover; TN; TSS; ChlA</t>
   </si>
 </sst>
 </file>
@@ -464,10 +476,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,7 +800,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1365,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FC7F79-CEB3-432E-A3AB-3A5236BDCD48}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,6 +1560,34 @@
         <v>104</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9">
+        <v>2009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10">
+        <v>2012</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1558,7 +1598,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,8 +1606,8 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
@@ -1579,14 +1619,14 @@
       <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1648,10 +1688,10 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="P3" t="s">
@@ -1666,10 +1706,10 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>28</v>
       </c>
       <c r="P4" t="s">
@@ -1683,10 +1723,10 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>42</v>
       </c>
       <c r="P5" t="s">
@@ -1700,10 +1740,10 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>9</v>
       </c>
       <c r="P6" t="s">
@@ -1717,10 +1757,10 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>41</v>
       </c>
       <c r="P7" t="s">
@@ -1761,16 +1801,16 @@
       <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
@@ -2045,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D415F46-8A27-4B6E-B90B-AAD6F6C1F58A}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,14 +2105,14 @@
       <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2138,6 +2178,9 @@
       </c>
       <c r="J3">
         <v>1.5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
       </c>
       <c r="P3" t="s">
         <v>116</v>

--- a/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
+++ b/doc/LitReview/TyndallLab/practice_reduction_estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnel\Documents\Project\G2G_supplyshed\doc\LitReview\TyndallLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF8A1B-27DD-4D51-BD70-3793AFA0C4FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD657290-5126-4ECA-9885-70EC3BFC6088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" activeTab="2" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="12000" activeTab="12" xr2:uid="{2B4A4EA7-2393-4A3B-BE3A-A25348E227CC}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="122">
   <si>
     <t>Nutrient Removal Wetland</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>conservation cover; TN; TSS; ChlA</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7C739-06E6-4D7B-B2DD-AC136A1D2BAA}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FC7F79-CEB3-432E-A3AB-3A5236BDCD48}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E9E06-2429-438E-A13C-0C2CC43C98C0}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,10 +1794,12 @@
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1818,25 +1823,28 @@
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -1871,8 +1879,9 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1885,31 +1894,31 @@
       <c r="L3">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
